--- a/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Morgan_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Morgan_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\Orleans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC953AD-74AD-41BB-95D1-9D54E97EB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3D5B9-40CD-AE4B-B17D-07583A9FA260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <t>Industrial/Residential</t>
   </si>
   <si>
-    <t>no</t>
+    <t>Allowed/Permitted (Hearing Not required)</t>
   </si>
 </sst>
 </file>
@@ -519,217 +519,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -1595,31 +1385,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1660,7 +1450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1479,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1508,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1537,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1566,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1595,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1624,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1653,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1682,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1921,36 +1711,36 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1959,27 +1749,27 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +1798,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +1827,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2066,36 +1856,36 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +1914,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +1943,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2164,7 +1954,7 @@
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2181,7 +1971,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2263,7 +2053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2304,7 +2094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2386,7 +2176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2409,7 +2199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2473,7 +2263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2496,7 +2286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2560,7 +2350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2583,7 +2373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2600,7 +2390,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2629,7 +2419,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2658,7 +2448,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2699,7 +2489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2734,7 +2524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2775,7 +2565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -2816,7 +2606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2857,7 +2647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +2688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2921,7 +2711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2944,7 +2734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2985,7 +2775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +2816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -3049,7 +2839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -3090,7 +2880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -3113,7 +2903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -3136,7 +2926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -3153,7 +2943,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -3170,7 +2960,7 @@
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +2977,7 @@
       </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3242,7 +3032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3271,7 +3061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -3300,7 +3090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -3329,7 +3119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -3358,7 +3148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -3381,7 +3171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -3404,7 +3194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3433,7 +3223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -3462,7 +3252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -3479,7 +3269,7 @@
       </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3286,7 @@
       </c>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -3519,7 +3309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3548,7 +3338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -3571,7 +3361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -3594,7 +3384,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -3617,7 +3407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -3646,7 +3436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3663,7 +3453,7 @@
       </c>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -3680,7 +3470,7 @@
       </c>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3709,7 +3499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3735,7 +3525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -3764,7 +3554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -3793,7 +3583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3822,7 +3612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3851,7 +3641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -3874,7 +3664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -3897,7 +3687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -3926,7 +3716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -3955,7 +3745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -3972,7 +3762,7 @@
       </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -3989,7 +3779,7 @@
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -4012,7 +3802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +3831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -4064,7 +3854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -4087,7 +3877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4110,7 +3900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -4133,7 +3923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -4162,7 +3952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -4179,7 +3969,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -4196,7 +3986,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -4225,7 +4015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -4251,7 +4041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -4280,7 +4070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -4309,7 +4099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -4338,7 +4128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -4367,7 +4157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -4390,7 +4180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -4442,7 +4232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -4471,7 +4261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -4488,7 +4278,7 @@
       </c>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -4505,7 +4295,7 @@
       </c>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -4528,7 +4318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -4557,7 +4347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -4580,7 +4370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -4603,7 +4393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -4626,7 +4416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -4649,7 +4439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -4678,12 +4468,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -4694,7 +4484,7 @@
       <c r="K114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -4717,7 +4507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -4740,7 +4530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -4763,7 +4553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -4786,7 +4576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -4809,7 +4599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -4832,7 +4622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -4855,7 +4645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -4884,7 +4674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -4913,7 +4703,7 @@
       </c>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -4942,7 +4732,7 @@
       </c>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -4971,36 +4761,36 @@
       </c>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -5023,7 +4813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -5064,7 +4854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -5093,7 +4883,7 @@
       </c>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -5134,7 +4924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -5157,7 +4947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -5198,7 +4988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -5227,7 +5017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -5256,7 +5046,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -5297,7 +5087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -5320,7 +5110,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -5331,7 +5121,7 @@
       <c r="K137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -5360,7 +5150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -5389,7 +5179,7 @@
       </c>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -5400,7 +5190,7 @@
       <c r="K140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -5429,7 +5219,7 @@
       </c>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -5458,7 +5248,7 @@
       </c>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -5487,7 +5277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -5511,394 +5301,339 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B34:B35 D34:D35 J34:J37 L34:L37 B36:C37 E36:E43 G36:G37 K36:K37 M36:M37 D37:D43 F34:F37 I36:I37 H34:H37 B45:M49">
-    <cfRule type="expression" dxfId="108" priority="391">
+  <conditionalFormatting sqref="B34:B35 D34:D35 F34:F37 H34:H37 J34:J37 L34:L37 B36:C37 G36:G37 I36:I37 K36:K37 M36:M37 E36:E43 D37:D43 B45:M49">
+    <cfRule type="expression" dxfId="78" priority="391">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52 D63:D64 F51:F69 H51:H69 J51:J69 L63:L64 B53:C62 G53:G62 I53:I62 K53:K62 B63:B64 B65:C69 G65:G69 I65:I69 K65:K69 D69:E69 L69:M69">
-    <cfRule type="expression" dxfId="107" priority="390" stopIfTrue="1">
+  <conditionalFormatting sqref="B51:B52 F51:F69 H51:H69 J51:J69 B53:C62 G53:G62 I53:I62 K53:K62 B63:B64 D63:D64 L63:L64 B65:C69 G65:G69 I65:I69 K65:K69 D69:E69 L69:M69">
+    <cfRule type="expression" dxfId="77" priority="390" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B89 F71:F90 H71:H90 J71:J90 B90:E90 G90 I90 K90:M90">
-    <cfRule type="expression" dxfId="106" priority="389">
+    <cfRule type="expression" dxfId="76" priority="389">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B111 F92:F111 H92:H111 J92:J111">
-    <cfRule type="expression" dxfId="105" priority="388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="388" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121">
-    <cfRule type="expression" dxfId="104" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="387" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:B132 D123:D132 F123:F132 H123:H132 J123:J132 L123:L132">
-    <cfRule type="expression" dxfId="103" priority="386">
+    <cfRule type="expression" dxfId="73" priority="386">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B134:B137 D134:D137 J134:J137 F134:F137 H134:H137 L134:L137">
-    <cfRule type="expression" dxfId="102" priority="385" stopIfTrue="1">
+  <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137">
+    <cfRule type="expression" dxfId="72" priority="385" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C44">
-    <cfRule type="expression" dxfId="101" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C28 J21:M32 B21:G21 B29:I32 I21">
-    <cfRule type="expression" dxfId="36" priority="59" stopIfTrue="1">
+  <conditionalFormatting sqref="B21:G21 I21 J21:M32 B22:C28 B29:I32">
+    <cfRule type="expression" dxfId="70" priority="59" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C82 C85:C89">
-    <cfRule type="expression" dxfId="100" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="384" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C103 C106:C110">
-    <cfRule type="expression" dxfId="99" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="382" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="98" priority="383">
+  <conditionalFormatting sqref="C115:C120">
+    <cfRule type="expression" dxfId="67" priority="375" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="expression" dxfId="66" priority="376">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="97" priority="375" stopIfTrue="1">
+  <conditionalFormatting sqref="C127:C128">
+    <cfRule type="expression" dxfId="65" priority="373" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="96" priority="376">
+  <conditionalFormatting sqref="C130:C132">
+    <cfRule type="expression" dxfId="64" priority="370" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135:C136">
+    <cfRule type="expression" dxfId="63" priority="368" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:E111">
+    <cfRule type="expression" dxfId="62" priority="43">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="95" priority="373" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="94" priority="370" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="93" priority="368" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D52 E53:E62 D54:D62">
+    <cfRule type="expression" dxfId="60" priority="50">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D72 E73:E82 D74:D82">
+    <cfRule type="expression" dxfId="58" priority="46">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="expression" dxfId="57" priority="45" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:D84 D89:E89">
+    <cfRule type="expression" dxfId="56" priority="47" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D93 E94:E103 D95:D103">
+    <cfRule type="expression" dxfId="55" priority="41">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="expression" dxfId="54" priority="40" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:D105 D110:E110">
+    <cfRule type="expression" dxfId="53" priority="42" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:E68">
+    <cfRule type="expression" dxfId="52" priority="48">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:E88">
+    <cfRule type="expression" dxfId="51" priority="44">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106:E109">
+    <cfRule type="expression" dxfId="50" priority="39">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:I28">
+    <cfRule type="expression" dxfId="49" priority="30">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:M44">
+    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="89" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="210" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="88" priority="211">
+    <cfRule type="expression" dxfId="46" priority="211">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E128">
+    <cfRule type="expression" dxfId="45" priority="38" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="85" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="207" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F38:I43">
+    <cfRule type="expression" dxfId="42" priority="29">
+      <formula>OR(F$12="", F$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G73:G82 G85:G89">
-    <cfRule type="expression" dxfId="84" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="206" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G103 G106:G110">
-    <cfRule type="expression" dxfId="83" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="204" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="82" priority="205">
+    <cfRule type="expression" dxfId="39" priority="205">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="81" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="202" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="80" priority="203">
+    <cfRule type="expression" dxfId="37" priority="203">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G128">
+    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130:G132">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G136">
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>OR(H$12="", H$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I73:I82 I85:I89">
-    <cfRule type="expression" dxfId="76" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="198" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:I103 I106:I110">
-    <cfRule type="expression" dxfId="75" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="196" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="74" priority="197">
+    <cfRule type="expression" dxfId="30" priority="197">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="73" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="194" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="72" priority="195">
+    <cfRule type="expression" dxfId="28" priority="195">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135">
-    <cfRule type="expression" dxfId="69" priority="191" stopIfTrue="1">
+  <conditionalFormatting sqref="I127:I128">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I130:I132">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:M43">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
+      <formula>OR(J$11="", J$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K73:K82 K85:K89">
-    <cfRule type="expression" dxfId="68" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="190" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:K103 K106:K110">
-    <cfRule type="expression" dxfId="67" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="188" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K111">
-    <cfRule type="expression" dxfId="66" priority="189">
+  <conditionalFormatting sqref="K115:K120">
+    <cfRule type="expression" dxfId="21" priority="186" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121">
+    <cfRule type="expression" dxfId="20" priority="187">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K115:K120">
-    <cfRule type="expression" dxfId="65" priority="186" stopIfTrue="1">
+  <conditionalFormatting sqref="K127:K128">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>OR(K$13="", K$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K121">
-    <cfRule type="expression" dxfId="64" priority="187">
+  <conditionalFormatting sqref="K130:K132">
+    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135:K136">
+    <cfRule type="expression" dxfId="17" priority="183" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:M111">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>OR(K$14="", K$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135:K136">
-    <cfRule type="expression" dxfId="61" priority="183" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M115:M120">
-    <cfRule type="expression" dxfId="57" priority="178" stopIfTrue="1">
-      <formula>OR(M$13="", M$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M121">
-    <cfRule type="expression" dxfId="56" priority="179">
-      <formula>OR(M$14="", M$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="52" priority="51" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52 E53:E62 D54:D62">
-    <cfRule type="expression" dxfId="51" priority="50">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:E68">
-    <cfRule type="expression" dxfId="49" priority="48">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D84 D89:E89">
-    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D72 E73:E82 D74:D82">
-    <cfRule type="expression" dxfId="47" priority="46">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:E88">
-    <cfRule type="expression" dxfId="45" priority="44">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D111:E111">
-    <cfRule type="expression" dxfId="44" priority="43">
-      <formula>OR(D$14="", D$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D105 D110:E110">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D93 E94:E103 D95:D103">
-    <cfRule type="expression" dxfId="42" priority="41">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106:E109">
-    <cfRule type="expression" dxfId="40" priority="39">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E28">
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G28">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G43">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>OR(H$12="", H$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:I43">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR(H$12="", H$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>OR(H$12="", H$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K43">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K127:K128">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K130:K132">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38:M43">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>OR(L$11="", L$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L51:L54 M53:M54 L61:M62">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>OR(L$12="", L$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:M60">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>OR(L$11="", L$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65:M68">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="L71:L74 M73:M74 L81:M82">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>OR(L$12="", L$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83:L84 L89:M89">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>OR(L$13="", L$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71:L74 M73:M74 L81:M82">
-    <cfRule type="expression" dxfId="15" priority="16">
+  <conditionalFormatting sqref="L92:L95 M94:M95 L102:M103">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>OR(L$12="", L$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75:M80">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>OR(L$11="", L$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L85:M88">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR(L$12="", L$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L111:M111">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR(L$14="", L$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104:L105 L110:M110">
@@ -5906,59 +5641,59 @@
       <formula>OR(L$13="", L$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:L95 M94:M95 L102:M103">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="L55:M60">
+    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+      <formula>OR(L$11="", L$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:M68">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>OR(L$12="", L$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L75:M80">
+    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
+      <formula>OR(L$11="", L$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85:M88">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>OR(L$12="", L$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L96:M101">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>OR(L$11="", L$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106:M109">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>OR(L$12="", L$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M115:M120">
+    <cfRule type="expression" dxfId="4" priority="178" stopIfTrue="1">
+      <formula>OR(M$13="", M$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M121">
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>OR(M$14="", M$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127:M128">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>OR(M$13="", M$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M130:M132">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>OR(M$13="", M$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M135:M136">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M127:M128">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>OR(M$13="", M$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M130:M132">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>OR(M$13="", M$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:E44">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:G44">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:I44">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K44">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>OR(J$11="", J$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:M44">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>OR(L$11="", L$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6063,18 +5798,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -6082,7 +5817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6090,7 +5825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -6098,7 +5833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -6106,7 +5841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -6114,12 +5849,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -6127,7 +5862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -6135,7 +5870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6143,7 +5878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -6151,12 +5886,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -6184,60 +5919,8 @@
         <f>Districts!L1</f>
         <v>IND/RES</v>
       </c>
-      <c r="H12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6245,7 +5928,7 @@
         <v>41260</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -6300,9 +5983,9 @@
       <selection activeCell="D16" sqref="D16:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6313,7 +5996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6324,7 +6007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -6332,7 +6015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -6340,12 +6023,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -6377,7 +6060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -6409,7 +6092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -6441,7 +6124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -6473,22 +6156,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -6496,7 +6179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>108</v>
       </c>
@@ -6504,7 +6187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -6512,7 +6195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -6520,7 +6203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -6528,7 +6211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
